--- a/Отчеты/МазОт2024-01-19.xlsx
+++ b/Отчеты/МазОт2024-01-19.xlsx
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B1" s="72" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Екатеренбург</t>
         </is>
       </c>
       <c r="C1" s="129" t="n"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="J2" s="54" t="inlineStr">
         <is>
-          <t>2024-01-19 22:06</t>
+          <t>2024-01-18 19:23</t>
         </is>
       </c>
       <c r="K2" s="44" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="L2" s="53" t="inlineStr">
         <is>
-          <t>2024-01-19 22:06</t>
+          <t>2024-01-19 21:12</t>
         </is>
       </c>
       <c r="M2" s="69" t="inlineStr">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="N2" s="70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" s="32">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="J3" s="51" t="n">
-        <v>580000</v>
+        <v>678</v>
       </c>
       <c r="K3" s="38" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="L3" s="49" t="n">
-        <v>589000</v>
+        <v>78987</v>
       </c>
       <c r="M3" s="41" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="J4" s="51" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="K4" s="40" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="L4" s="50" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="M4" s="41" t="inlineStr">
         <is>
@@ -2099,81 +2099,33 @@
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" s="32">
-      <c r="A7" s="24" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
+      <c r="A7" s="24" t="n"/>
       <c r="B7" s="57" t="n"/>
-      <c r="C7" s="57" t="n">
-        <v>60000</v>
-      </c>
+      <c r="C7" s="57" t="n"/>
       <c r="D7" s="25" t="n"/>
       <c r="E7" s="28" t="n"/>
-      <c r="F7" s="31" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="G7" s="59" t="n">
-        <v>79</v>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I7" s="33" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="J7" s="65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Еда </t>
-        </is>
-      </c>
-      <c r="K7" s="61" t="n">
-        <v>7800</v>
-      </c>
+      <c r="F7" s="31" t="n"/>
+      <c r="G7" s="59" t="n"/>
+      <c r="H7" s="45" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="65" t="n"/>
+      <c r="K7" s="61" t="n"/>
       <c r="L7" s="33" t="n"/>
       <c r="M7" s="68" t="n"/>
       <c r="N7" s="63" t="n"/>
     </row>
     <row r="8" ht="21" customHeight="1" s="32">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="B8" s="46" t="n">
-        <v>500</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="46" t="n"/>
       <c r="C8" s="46" t="n"/>
       <c r="D8" s="127" t="n"/>
       <c r="E8" s="17" t="n"/>
-      <c r="F8" s="30" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="G8" s="60" t="n">
-        <v>80</v>
-      </c>
-      <c r="H8" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="J8" s="66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Шиномонтаж </t>
-        </is>
-      </c>
-      <c r="K8" s="62" t="n">
-        <v>1800</v>
-      </c>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="60" t="n"/>
+      <c r="H8" s="46" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="66" t="n"/>
+      <c r="K8" s="62" t="n"/>
       <c r="L8" s="8" t="n"/>
       <c r="M8" s="66" t="n"/>
       <c r="N8" s="64" t="n"/>
@@ -2187,19 +2139,9 @@
       <c r="F9" s="30" t="n"/>
       <c r="G9" s="60" t="n"/>
       <c r="H9" s="46" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="J9" s="66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Паром </t>
-        </is>
-      </c>
-      <c r="K9" s="62" t="n">
-        <v>30000</v>
-      </c>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="66" t="n"/>
+      <c r="K9" s="62" t="n"/>
       <c r="L9" s="8" t="n"/>
       <c r="M9" s="66" t="n"/>
       <c r="N9" s="64" t="n"/>
@@ -2213,19 +2155,9 @@
       <c r="F10" s="30" t="n"/>
       <c r="G10" s="60" t="n"/>
       <c r="H10" s="46" t="n"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="J10" s="66" t="inlineStr">
-        <is>
-          <t>Запчасти "Подшипник"</t>
-        </is>
-      </c>
-      <c r="K10" s="62" t="n">
-        <v>6000</v>
-      </c>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="66" t="n"/>
+      <c r="K10" s="62" t="n"/>
       <c r="L10" s="8" t="n"/>
       <c r="M10" s="66" t="n"/>
       <c r="N10" s="64" t="n"/>
@@ -2239,19 +2171,9 @@
       <c r="F11" s="30" t="n"/>
       <c r="G11" s="60" t="n"/>
       <c r="H11" s="46" t="n"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 22:06</t>
-        </is>
-      </c>
-      <c r="J11" s="66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Еда </t>
-        </is>
-      </c>
-      <c r="K11" s="62" t="n">
-        <v>1200</v>
-      </c>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="66" t="n"/>
+      <c r="K11" s="62" t="n"/>
       <c r="L11" s="8" t="n"/>
       <c r="M11" s="66" t="n"/>
       <c r="N11" s="64" t="n"/>
